--- a/보고/3팀보고.xlsx
+++ b/보고/3팀보고.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>페이지</t>
   </si>
@@ -234,6 +234,24 @@
   </si>
   <si>
     <t>게시판 댓글달기(반응형)</t>
+  </si>
+  <si>
+    <t>백앤드 작업</t>
+  </si>
+  <si>
+    <t>박민수 예약하기</t>
+  </si>
+  <si>
+    <t>김홍준 메인 페이지</t>
+  </si>
+  <si>
+    <t>민병욱 이벤트</t>
+  </si>
+  <si>
+    <t>김영채 마이 페이지</t>
+  </si>
+  <si>
+    <t>최예니 주차장 업로드, 회원가입, 로그인</t>
   </si>
 </sst>
 </file>
@@ -1435,10 +1453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:T58"/>
+  <dimension ref="B1:V58"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="V28" sqref="V28"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
@@ -1451,11 +1469,10 @@
     <col min="6" max="6" style="8" width="10.63000011" hidden="1" customWidth="1" outlineLevel="0"/>
     <col min="7" max="15" style="4" width="10.63000011" hidden="1" customWidth="1" outlineLevel="0"/>
     <col min="16" max="20" style="4" width="10.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="21" max="16382" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
-    <col min="16383" max="16384" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="21" max="16384" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19">
+    <row r="2" spans="2:22">
       <c r="E2" s="2"/>
       <c r="F2" s="3">
         <v>45178</v>
@@ -1499,8 +1516,14 @@
       <c r="S2" s="3">
         <v>45191</v>
       </c>
-    </row>
-    <row r="3" spans="2:19">
+      <c r="T2" s="3">
+        <v>45192</v>
+      </c>
+      <c r="U2" s="3">
+        <v>45193</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22">
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1560,8 +1583,16 @@
         <f>AVERAGE(S16,S30,S38,S43,S51)</f>
         <v>0.977142857142857</v>
       </c>
-    </row>
-    <row r="5" spans="2:19" ht="20.100000" customHeight="1">
+      <c r="T3" s="6">
+        <f>AVERAGE(T16,T30,T38,T43,T51)</f>
+        <v>0.988571428571429</v>
+      </c>
+      <c r="U3" s="6">
+        <f>AVERAGE(U16,U30,U38,U43,U51)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" ht="20.100000" customHeight="1">
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
         <v>0</v>
@@ -1612,8 +1643,14 @@
       <c r="S5" s="3">
         <v>45191</v>
       </c>
-    </row>
-    <row r="6" spans="2:19" ht="20.100000" customHeight="1">
+      <c r="T5" s="3">
+        <v>45194</v>
+      </c>
+      <c r="U5" s="3">
+        <v>45195</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" ht="20.100000" customHeight="1">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
@@ -1666,8 +1703,14 @@
       <c r="S6" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:19" ht="16.500000" customHeight="1">
+      <c r="T6" s="9">
+        <v>1</v>
+      </c>
+      <c r="U6" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" ht="16.500000" customHeight="1">
       <c r="B7" s="13"/>
       <c r="C7" s="11"/>
       <c r="D7" s="10" t="s">
@@ -1716,8 +1759,14 @@
       <c r="S7" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:19">
+      <c r="T7" s="9">
+        <v>1</v>
+      </c>
+      <c r="U7" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22">
       <c r="B8" s="13"/>
       <c r="C8" s="11"/>
       <c r="D8" s="7" t="s">
@@ -1766,8 +1815,14 @@
       <c r="S8" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:19">
+      <c r="T8" s="9">
+        <v>1</v>
+      </c>
+      <c r="U8" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22">
       <c r="B9" s="13"/>
       <c r="C9" s="11"/>
       <c r="D9" s="7" t="s">
@@ -1816,8 +1871,14 @@
       <c r="S9" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:19">
+      <c r="T9" s="9">
+        <v>1</v>
+      </c>
+      <c r="U9" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22">
       <c r="B10" s="13"/>
       <c r="C10" s="11"/>
       <c r="D10" s="7" t="s">
@@ -1866,8 +1927,14 @@
       <c r="S10" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:19">
+      <c r="T10" s="9">
+        <v>1</v>
+      </c>
+      <c r="U10" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22">
       <c r="B11" s="13"/>
       <c r="C11" s="11"/>
       <c r="D11" s="7" t="s">
@@ -1916,8 +1983,14 @@
       <c r="S11" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:19">
+      <c r="T11" s="9">
+        <v>1</v>
+      </c>
+      <c r="U11" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22">
       <c r="B12" s="13"/>
       <c r="C12" s="11"/>
       <c r="D12" s="7" t="s">
@@ -1966,8 +2039,14 @@
       <c r="S12" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:19">
+      <c r="T12" s="9">
+        <v>1</v>
+      </c>
+      <c r="U12" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22">
       <c r="B13" s="13"/>
       <c r="C13" s="11"/>
       <c r="D13" s="7" t="s">
@@ -2016,8 +2095,14 @@
       <c r="S13" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:19">
+      <c r="T13" s="9">
+        <v>1</v>
+      </c>
+      <c r="U13" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22">
       <c r="B14" s="13"/>
       <c r="C14" s="11"/>
       <c r="D14" s="7" t="s">
@@ -2066,8 +2151,14 @@
       <c r="S14" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="2:19">
+      <c r="T14" s="9">
+        <v>1</v>
+      </c>
+      <c r="U14" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22">
       <c r="B15" s="13"/>
       <c r="C15" s="11"/>
       <c r="D15" s="7" t="s">
@@ -2116,8 +2207,14 @@
       <c r="S15" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="2:19">
+      <c r="T15" s="9">
+        <v>1</v>
+      </c>
+      <c r="U15" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22">
       <c r="B16" s="14"/>
       <c r="C16" s="16"/>
       <c r="D16" s="7"/>
@@ -2178,8 +2275,17 @@
         <f>AVERAGE(S6:S15)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:20">
+      <c r="T16" s="6">
+        <f>AVERAGE(T6:T15)</f>
+        <v>1</v>
+      </c>
+      <c r="U16" s="6">
+        <f>AVERAGE(U6:U15)</f>
+        <v>1</v>
+      </c>
+      <c r="V16" s="4"/>
+    </row>
+    <row r="17" spans="2:22">
       <c r="B17" s="20" t="s">
         <v>6</v>
       </c>
@@ -2232,11 +2338,15 @@
       <c r="S17" s="9">
         <v>1</v>
       </c>
-      <c r="T17" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:20">
+      <c r="T17" s="9">
+        <v>1</v>
+      </c>
+      <c r="U17" s="9">
+        <v>1</v>
+      </c>
+      <c r="V17" s="4"/>
+    </row>
+    <row r="18" spans="2:22">
       <c r="B18" s="21"/>
       <c r="C18" s="18"/>
       <c r="D18" s="24" t="s">
@@ -2285,11 +2395,15 @@
       <c r="S18" s="9">
         <v>1</v>
       </c>
-      <c r="T18" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:20">
+      <c r="T18" s="9">
+        <v>1</v>
+      </c>
+      <c r="U18" s="9">
+        <v>1</v>
+      </c>
+      <c r="V18" s="4"/>
+    </row>
+    <row r="19" spans="2:22">
       <c r="B19" s="21"/>
       <c r="C19" s="18"/>
       <c r="D19" s="24" t="s">
@@ -2338,11 +2452,15 @@
       <c r="S19" s="9">
         <v>1</v>
       </c>
-      <c r="T19" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:20">
+      <c r="T19" s="9">
+        <v>1</v>
+      </c>
+      <c r="U19" s="9">
+        <v>1</v>
+      </c>
+      <c r="V19" s="4"/>
+    </row>
+    <row r="20" spans="2:22">
       <c r="B20" s="21"/>
       <c r="C20" s="18"/>
       <c r="D20" s="24" t="s">
@@ -2391,11 +2509,15 @@
       <c r="S20" s="9">
         <v>1</v>
       </c>
-      <c r="T20" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:20">
+      <c r="T20" s="9">
+        <v>1</v>
+      </c>
+      <c r="U20" s="9">
+        <v>1</v>
+      </c>
+      <c r="V20" s="4"/>
+    </row>
+    <row r="21" spans="2:22">
       <c r="B21" s="21"/>
       <c r="C21" s="18"/>
       <c r="D21" s="24" t="s">
@@ -2444,11 +2566,15 @@
       <c r="S21" s="9">
         <v>1</v>
       </c>
-      <c r="T21" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:20">
+      <c r="T21" s="9">
+        <v>1</v>
+      </c>
+      <c r="U21" s="9">
+        <v>1</v>
+      </c>
+      <c r="V21" s="4"/>
+    </row>
+    <row r="22" spans="2:22">
       <c r="B22" s="21"/>
       <c r="C22" s="18"/>
       <c r="D22" s="27" t="s">
@@ -2497,11 +2623,14 @@
       <c r="S22" s="9">
         <v>1</v>
       </c>
-      <c r="T22" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:20">
+      <c r="T22" s="9">
+        <v>1</v>
+      </c>
+      <c r="U22" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22">
       <c r="B23" s="21"/>
       <c r="C23" s="18"/>
       <c r="D23" s="26" t="s">
@@ -2550,11 +2679,14 @@
       <c r="S23" s="9">
         <v>1</v>
       </c>
-      <c r="T23" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="2:20">
+      <c r="T23" s="9">
+        <v>1</v>
+      </c>
+      <c r="U23" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22">
       <c r="B24" s="21"/>
       <c r="C24" s="18"/>
       <c r="D24" s="26" t="s">
@@ -2603,11 +2735,14 @@
       <c r="S24" s="9">
         <v>1</v>
       </c>
-      <c r="T24" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:20">
+      <c r="T24" s="9">
+        <v>1</v>
+      </c>
+      <c r="U24" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22">
       <c r="B25" s="21"/>
       <c r="C25" s="18"/>
       <c r="D25" s="24" t="s">
@@ -2656,11 +2791,14 @@
       <c r="S25" s="9">
         <v>1</v>
       </c>
-      <c r="T25" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="2:20">
+      <c r="T25" s="9">
+        <v>1</v>
+      </c>
+      <c r="U25" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22">
       <c r="B26" s="21"/>
       <c r="C26" s="18"/>
       <c r="D26" s="24" t="s">
@@ -2709,11 +2847,14 @@
       <c r="S26" s="9">
         <v>1</v>
       </c>
-      <c r="T26" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="2:20">
+      <c r="T26" s="9">
+        <v>1</v>
+      </c>
+      <c r="U26" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22">
       <c r="B27" s="21"/>
       <c r="C27" s="18"/>
       <c r="D27" s="26" t="s">
@@ -2762,11 +2903,14 @@
       <c r="S27" s="9">
         <v>1</v>
       </c>
-      <c r="T27" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="2:20">
+      <c r="T27" s="9">
+        <v>1</v>
+      </c>
+      <c r="U27" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22">
       <c r="B28" s="21"/>
       <c r="C28" s="18"/>
       <c r="D28" s="26" t="s">
@@ -2815,11 +2959,14 @@
       <c r="S28" s="9">
         <v>1</v>
       </c>
-      <c r="T28" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="2:20">
+      <c r="T28" s="9">
+        <v>1</v>
+      </c>
+      <c r="U28" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22">
       <c r="B29" s="21"/>
       <c r="C29" s="18"/>
       <c r="D29" s="26" t="s">
@@ -2868,11 +3015,14 @@
       <c r="S29" s="9">
         <v>1</v>
       </c>
-      <c r="T29" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="2:20">
+      <c r="T29" s="9">
+        <v>1</v>
+      </c>
+      <c r="U29" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22">
       <c r="B30" s="22"/>
       <c r="C30" s="19"/>
       <c r="D30" s="7"/>
@@ -2933,8 +3083,16 @@
         <f>AVERAGE(S17:S29)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="2:20">
+      <c r="T30" s="6">
+        <f>AVERAGE(T17:T29)</f>
+        <v>1</v>
+      </c>
+      <c r="U30" s="6">
+        <f>AVERAGE(U17:U29)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22">
       <c r="B31" s="12" t="s">
         <v>4</v>
       </c>
@@ -2987,8 +3145,14 @@
       <c r="S31" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:20">
+      <c r="T31" s="9">
+        <v>1</v>
+      </c>
+      <c r="U31" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22">
       <c r="B32" s="13"/>
       <c r="C32" s="18"/>
       <c r="D32" s="24" t="s">
@@ -3037,8 +3201,14 @@
       <c r="S32" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="2:19">
+      <c r="T32" s="9">
+        <v>1</v>
+      </c>
+      <c r="U32" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21">
       <c r="B33" s="13"/>
       <c r="C33" s="18"/>
       <c r="D33" s="24" t="s">
@@ -3087,8 +3257,14 @@
       <c r="S33" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="2:19">
+      <c r="T33" s="9">
+        <v>1</v>
+      </c>
+      <c r="U33" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21">
       <c r="B34" s="13"/>
       <c r="C34" s="18"/>
       <c r="D34" s="24" t="s">
@@ -3137,8 +3313,14 @@
       <c r="S34" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="2:19">
+      <c r="T34" s="9">
+        <v>1</v>
+      </c>
+      <c r="U34" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21">
       <c r="B35" s="13"/>
       <c r="C35" s="18"/>
       <c r="D35" s="24" t="s">
@@ -3187,8 +3369,14 @@
       <c r="S35" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="2:19">
+      <c r="T35" s="9">
+        <v>1</v>
+      </c>
+      <c r="U35" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21">
       <c r="B36" s="13"/>
       <c r="C36" s="18"/>
       <c r="D36" s="24" t="s">
@@ -3237,8 +3425,14 @@
       <c r="S36" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="2:19">
+      <c r="T36" s="9">
+        <v>1</v>
+      </c>
+      <c r="U36" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21">
       <c r="B37" s="13"/>
       <c r="C37" s="18"/>
       <c r="D37" s="24" t="s">
@@ -3287,8 +3481,14 @@
       <c r="S37" s="9">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="38" spans="2:19">
+      <c r="T37" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="U37" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21">
       <c r="B38" s="14"/>
       <c r="C38" s="19"/>
       <c r="D38" s="7"/>
@@ -3349,8 +3549,16 @@
         <f>AVERAGE(S31:S37)</f>
         <v>0.885714285714286</v>
       </c>
-    </row>
-    <row r="39" spans="2:19">
+      <c r="T38" s="6">
+        <f>AVERAGE(T31:T37)</f>
+        <v>0.942857142857143</v>
+      </c>
+      <c r="U38" s="6">
+        <f>AVERAGE(U31:U37)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21">
       <c r="B39" s="12" t="s">
         <v>5</v>
       </c>
@@ -3403,8 +3611,14 @@
       <c r="S39" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="2:19">
+      <c r="T39" s="9">
+        <v>1</v>
+      </c>
+      <c r="U39" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21">
       <c r="B40" s="13"/>
       <c r="C40" s="18"/>
       <c r="D40" s="7" t="s">
@@ -3453,8 +3667,14 @@
       <c r="S40" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="2:19">
+      <c r="T40" s="9">
+        <v>1</v>
+      </c>
+      <c r="U40" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21">
       <c r="B41" s="13"/>
       <c r="C41" s="18"/>
       <c r="D41" s="7" t="s">
@@ -3503,8 +3723,14 @@
       <c r="S41" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="2:19">
+      <c r="T41" s="9">
+        <v>1</v>
+      </c>
+      <c r="U41" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21">
       <c r="B42" s="13"/>
       <c r="C42" s="18"/>
       <c r="D42" s="7" t="s">
@@ -3553,8 +3779,14 @@
       <c r="S42" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="2:19">
+      <c r="T42" s="9">
+        <v>1</v>
+      </c>
+      <c r="U42" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21">
       <c r="B43" s="14"/>
       <c r="C43" s="19"/>
       <c r="D43" s="7"/>
@@ -3615,8 +3847,16 @@
         <f>AVERAGE(S39:S42)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="2:19">
+      <c r="T43" s="6">
+        <f>AVERAGE(T39:T42)</f>
+        <v>1</v>
+      </c>
+      <c r="U43" s="6">
+        <f>AVERAGE(U39:U42)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21">
       <c r="B44" s="12" t="s">
         <v>17</v>
       </c>
@@ -3669,8 +3909,14 @@
       <c r="S44" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="2:19">
+      <c r="T44" s="9">
+        <v>1</v>
+      </c>
+      <c r="U44" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21">
       <c r="B45" s="13"/>
       <c r="C45" s="11"/>
       <c r="D45" s="7" t="s">
@@ -3719,8 +3965,14 @@
       <c r="S45" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="2:19">
+      <c r="T45" s="9">
+        <v>1</v>
+      </c>
+      <c r="U45" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21">
       <c r="B46" s="13"/>
       <c r="C46" s="11"/>
       <c r="D46" s="7" t="s">
@@ -3769,8 +4021,14 @@
       <c r="S46" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="2:19">
+      <c r="T46" s="9">
+        <v>1</v>
+      </c>
+      <c r="U46" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21">
       <c r="B47" s="13"/>
       <c r="C47" s="11"/>
       <c r="D47" s="7" t="s">
@@ -3819,8 +4077,14 @@
       <c r="S47" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="2:19">
+      <c r="T47" s="9">
+        <v>1</v>
+      </c>
+      <c r="U47" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21">
       <c r="B48" s="13"/>
       <c r="C48" s="11"/>
       <c r="D48" s="7" t="s">
@@ -3869,8 +4133,14 @@
       <c r="S48" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="2:19">
+      <c r="T48" s="9">
+        <v>1</v>
+      </c>
+      <c r="U48" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21">
       <c r="B49" s="13"/>
       <c r="C49" s="11"/>
       <c r="D49" s="7" t="s">
@@ -3919,8 +4189,14 @@
       <c r="S49" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="2:19" ht="16.500000" customHeight="1">
+      <c r="T49" s="9">
+        <v>1</v>
+      </c>
+      <c r="U49" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21" ht="16.500000" customHeight="1">
       <c r="B50" s="13"/>
       <c r="C50" s="11"/>
       <c r="D50" s="7" t="s">
@@ -3969,8 +4245,14 @@
       <c r="S50" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="2:19">
+      <c r="T50" s="9">
+        <v>1</v>
+      </c>
+      <c r="U50" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:21">
       <c r="B51" s="14"/>
       <c r="C51" s="16"/>
       <c r="D51" s="7"/>
@@ -4030,32 +4312,40 @@
         <f>AVERAGE(S44:S50)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="2:19">
+      <c r="T51" s="6">
+        <f>AVERAGE(T44:T50)</f>
+        <v>1</v>
+      </c>
+      <c r="U51" s="6">
+        <f>AVERAGE(U44:U50)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:21">
       <c r="E52" s="8"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="2:19">
+    <row r="53" spans="2:21">
       <c r="E53" s="8"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="2:19">
+    <row r="54" spans="2:21">
       <c r="E54" s="8"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="2:19">
+    <row r="55" spans="2:21">
       <c r="E55" s="8"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="2:19">
+    <row r="56" spans="2:21">
       <c r="E56" s="8"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="2:19">
+    <row r="57" spans="2:21">
       <c r="E57" s="8"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="2:19">
+    <row r="58" spans="2:21">
       <c r="E58" s="8"/>
       <c r="F58" s="4"/>
     </row>
@@ -4074,27 +4364,27 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D8:D10 D15 B17:C28 E17:E28 B29:C29 E29 B31:C31 E37 B44">
-    <cfRule type="cellIs" dxfId="10" priority="322" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="374" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39:C42">
-    <cfRule type="cellIs" dxfId="9" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="247" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44 E50">
-    <cfRule type="cellIs" dxfId="8" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="286" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="7" priority="591" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="655" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q44:S50 S44 Q45 S45 Q46 S46 Q47 S47 Q48 S48 Q49 S49 Q50 S50:T50">
-    <cfRule type="dataBar" priority="669">
+  <conditionalFormatting sqref="Q44:S50 S44 Q45 S45 Q46 S46 Q47 S47 Q48 S48 Q49 S49 Q50 S50 T44:U50">
+    <cfRule type="dataBar" priority="745">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4107,8 +4397,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q31:S37 S31 Q32 S32 Q33 S33 Q34 S34 Q35 S35 Q36 S36 Q37 S37:T37">
-    <cfRule type="dataBar" priority="670">
+  <conditionalFormatting sqref="Q31:S37 S31 Q32 S32 Q33 S33 Q34 S34 Q35 S35 Q36 S36 Q37 S37 T31:U37">
+    <cfRule type="dataBar" priority="746">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4122,12 +4412,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E10">
-    <cfRule type="cellIs" dxfId="6" priority="305" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="345" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q6:S15 S6 Q7 S7 Q8 S8 T8:T15 Q9 S9 Q10 S10 Q11 S11 Q12 S12 Q13 S13 Q14 S14 Q15 S15">
-    <cfRule type="dataBar" priority="604">
+  <conditionalFormatting sqref="Q6:S15 S6 Q7 S7 Q8 S8 Q9 S9 Q10 S10 Q11 S11 Q12 S12 Q13 S13 Q14 S14 Q15 S15 T6:U15">
+    <cfRule type="dataBar" priority="670">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4140,8 +4430,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17:O28 P17:Q17 R17:S29 S17 P18:Q18 S18 P19:Q19 S19 P20:Q20 S20 P21:Q21 S21 P22:Q22 S22 P23:Q23 S23 P24:Q24 S24 P25:Q25 S25 P26:Q26 S26 H27:Q27 S27 F28 H28:Q28 S28 F29:Q29 S29">
-    <cfRule type="dataBar" priority="124">
+  <conditionalFormatting sqref="F17:O28 P17:Q17 R17:S29 S17 P18:Q18 S18 P19:Q19 S19 P20:Q20 S20 P21:Q21 S21 P22:Q22 S22 P23:Q23 S23 P24:Q24 S24 P25:Q25 S25 P26:Q26 S26 H27:Q27 S27 F28 H28:Q28 S28 F29:Q29 S29 T17:U29">
+    <cfRule type="dataBar" priority="156">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4154,8 +4444,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17:O28 P17:Q17 R17:S29 S17 P18:Q18 S18 P19:Q19 S19 P20:Q20 S20 P21:Q21 S21 P22:Q22 S22 P23:Q23 S23 P24:Q24 S24 P25:Q25 S25 P26:Q26 S26 H27:Q27 S27 F28 H28:Q28 S28 F29:Q29 S29">
-    <cfRule type="dataBar" priority="605">
+  <conditionalFormatting sqref="F17:O28 P17:Q17 R17:S29 S17 P18:Q18 S18 P19:Q19 S19 P20:Q20 S20 P21:Q21 S21 P22:Q22 S22 P23:Q23 S23 P24:Q24 S24 P25:Q25 S25 P26:Q26 S26 H27:Q27 S27 F28 H28:Q28 S28 F29:Q29 S29 T17:U29">
+    <cfRule type="dataBar" priority="661">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4168,8 +4458,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17:O26 P17:Q17 R17:S29 S17 P18:Q18 S18 P19:Q19 S19 P20:Q20 S20 P21:Q21 S21 P22:Q22 S22 P23:Q23 S23 P24:Q24 S24 P25:Q25 S25 P26:Q26 S26 G27:O29 P27:Q27 S27 P28:Q28 S28 P29:Q29 S29">
-    <cfRule type="dataBar" priority="610">
+  <conditionalFormatting sqref="G17:O26 P17:Q17 R17:S29 S17 P18:Q18 S18 P19:Q19 S19 P20:Q20 S20 P21:Q21 S21 P22:Q22 S22 P23:Q23 S23 P24:Q24 S24 P25:Q25 S25 P26:Q26 S26 G27:O29 P27:Q27 S27 P28:Q28 S28 P29:Q29 S29 T17:U29">
+    <cfRule type="dataBar" priority="666">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4182,8 +4472,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44:O48 P44:Q44 R44:S50 S44 P45:Q45 S45 P46:Q46 S46 P47:Q47 S47 P48:Q48 S48 F49:Q49 S49 F50:Q50 S50">
-    <cfRule type="dataBar" priority="83">
+  <conditionalFormatting sqref="F44:O48 P44:Q44 R44:S50 S44 P45:Q45 S45 P46:Q46 S46 P47:Q47 S47 P48:Q48 S48 F49:Q49 S49 F50:Q50 S50 T44:U50">
+    <cfRule type="dataBar" priority="107">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4196,8 +4486,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44:O48 P44:Q44 R44:S50 S44 P45:Q45 S45 P46:Q46 S46 P47:Q47 S47 P48:Q48 S48 F49:Q49 S49 F50:Q50 S50">
-    <cfRule type="dataBar" priority="84">
+  <conditionalFormatting sqref="F44:O48 P44:Q44 R44:S50 S44 P45:Q45 S45 P46:Q46 S46 P47:Q47 S47 P48:Q48 S48 F49:Q49 S49 F50:Q50 S50 T44:U50">
+    <cfRule type="dataBar" priority="108">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4211,12 +4501,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D11">
-    <cfRule type="cellIs" dxfId="5" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="90" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:J12 P6:Q6 R6:S15 S6 P7:Q7 S7 P8:Q8 S8 T8:T13 P9:Q9 S9 P10:Q10 S10 P11:Q11 S11 P12:Q12 S12 F13:O14 P13:Q13 S13 G14:Q14 S14:T14 F15:J15 P15:Q15 S15:T15">
-    <cfRule type="dataBar" priority="563">
+  <conditionalFormatting sqref="F6:J12 P6:Q6 R6:S15 S6 P7:Q7 S7 P8:Q8 S8 P9:Q9 S9 P10:Q10 S10 P11:Q11 S11 P12:Q12 S12 F13:O14 P13:Q13 S13 G14:Q14 S14 F15:J15 P15:Q15 S15 T6:U15">
+    <cfRule type="dataBar" priority="599">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4229,8 +4519,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F31:Q31 R31:S37 S31 F32:Q32 S32 F33:Q33 S33 F34:Q34 S34 F35:Q35 S35 F36:Q36 S36 F37:Q37 S37">
-    <cfRule type="dataBar" priority="54">
+  <conditionalFormatting sqref="F31:Q31 R31:S37 S31 F32:Q32 S32 F33:Q33 S33 F34:Q34 S34 F35:Q35 S35 F36:Q36 S36 F37:Q37 S37 T31:U37">
+    <cfRule type="dataBar" priority="70">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4244,12 +4534,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="4" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="49" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:O12 P6:Q6 R6:S15 S6 P7:Q7 S7:T7 P8:Q8 S8 P9:Q9 S9 P10:Q10 S10 P11:Q11 S11 P12:Q12 S12 G13:Q13 S13 G14:Q14 S14 K15:Q15 S15">
-    <cfRule type="dataBar" priority="550">
+  <conditionalFormatting sqref="K6:O12 P6:Q6 R6:S15 S6 P7:Q7 S7 P8:Q8 S8 P9:Q9 S9 P10:Q10 S10 P11:Q11 S11 P12:Q12 S12 G13:Q13 S13 G14:Q14 S14 K15:Q15 S15 T6:U15">
+    <cfRule type="dataBar" priority="574">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4263,7 +4553,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="cellIs" dxfId="3" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="28" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4272,8 +4562,8 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F39:O42 H39:Q39 R39:S42 S39 F40:F42 H40:O42 P40:Q40 S40 P41:Q41 S41 P42:Q42 S42">
-    <cfRule type="dataBar" priority="495">
+  <conditionalFormatting sqref="F39:O42 H39:Q39 R39:S42 S39 F40:F42 H40:O42 P40:Q40 S40 P41:Q41 S41 P42:Q42 S42 T39:U42">
+    <cfRule type="dataBar" priority="503">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4286,8 +4576,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q39:S42 S39 T39:T42 Q40 S40 Q41 S41 Q42 S42">
-    <cfRule type="dataBar" priority="497">
+  <conditionalFormatting sqref="Q39:S42 S39 Q40 S40 Q41 S41 Q42 S42 T39:U42">
+    <cfRule type="dataBar" priority="505">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4301,12 +4591,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="10" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="278" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q31:S37 S36">
-    <cfRule type="dataBar" priority="598">
+  <conditionalFormatting sqref="Q31:S37 S36 T31:U37">
+    <cfRule type="dataBar" priority="602">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4319,7 +4609,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R31:S37 F36:Q36 S36">
+  <conditionalFormatting sqref="R31:S37 F36:Q36 S36 T31:U37">
     <cfRule type="dataBar" priority="38">
       <dataBar>
         <cfvo type="min"/>
